--- a/notebooks/DLL3/input/DLL3_SCDO1_individuals.xlsx
+++ b/notebooks/DLL3/input/DLL3_SCDO1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/DLL3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28507A-D4E3-D546-B85B-4FDBB57B117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B63861D-2EC0-5447-BF31-4020AAF729AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="12760" windowWidth="31400" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="7800" windowWidth="31400" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>PMID</t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,6 +822,12 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
@@ -884,6 +890,12 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
